--- a/utag_ug_archiver/static/dashboard/assets/sample_files/members_sample_file.xlsx
+++ b/utag_ug_archiver/static/dashboard/assets/sample_files/members_sample_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S T I G A R\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\Documents\Github\UTAG-UG-Archiver\utag_ug_archiver\static\dashboard\assets\sample_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{267F9984-B00D-471F-8D59-6924916450B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1340524-F378-423A-9699-EC99488E389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{5AC31FFD-5C0F-4328-886D-AB25890F8AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AC31FFD-5C0F-4328-886D-AB25890F8AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Title</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>frank@gmail.com</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
@@ -138,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,21 +443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456B0F80-7253-4AB2-AB56-E6F7DC8FE6FD}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +480,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -486,6 +505,12 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2">
+        <v>559991163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -706,18 +731,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,14 +765,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104BB9C4-B954-4A83-84B8-5010163678A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B1CA43-DFF8-4982-933E-CECA9B3468BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="cc356573-543f-4081-bada-acd90ba34eef"/>
@@ -762,4 +779,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104BB9C4-B954-4A83-84B8-5010163678A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>